--- a/data/output/result_原表-徐婷-销售开单对账2026-01-29 16_07_05.xlsx
+++ b/data/output/result_原表-徐婷-销售开单对账2026-01-29 16_07_05.xlsx
@@ -642,7 +642,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P2" t="n">
@@ -766,7 +766,7 @@
       <c r="N3" t="inlineStr"/>
       <c r="O3" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P3" t="n">
@@ -892,7 +892,7 @@
       <c r="N4" t="inlineStr"/>
       <c r="O4" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -1018,7 +1018,7 @@
       <c r="N5" t="inlineStr"/>
       <c r="O5" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P5" t="n">
@@ -1144,7 +1144,7 @@
       <c r="N6" t="inlineStr"/>
       <c r="O6" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P6" t="n">
@@ -1270,7 +1270,7 @@
       <c r="N7" t="inlineStr"/>
       <c r="O7" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P7" t="n">
@@ -1396,7 +1396,7 @@
       <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P8" t="n">
@@ -1520,7 +1520,7 @@
       <c r="N9" t="inlineStr"/>
       <c r="O9" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P9" t="n">
@@ -1646,7 +1646,7 @@
       <c r="N10" t="inlineStr"/>
       <c r="O10" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P10" t="n">
@@ -1772,7 +1772,7 @@
       <c r="N11" t="inlineStr"/>
       <c r="O11" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P11" t="n">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -2156,7 +2156,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P14" t="n">
@@ -2282,7 +2282,7 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P15" t="n">
@@ -2410,7 +2410,7 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -2538,7 +2538,7 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P17" t="n">
@@ -2666,7 +2666,7 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -2794,7 +2794,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P19" t="n">
@@ -2922,7 +2922,7 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P20" t="n">
@@ -3050,7 +3050,7 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P21" t="n">
@@ -3178,7 +3178,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P22" t="n">
@@ -3306,7 +3306,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P23" t="n">
@@ -3434,7 +3434,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P24" t="n">
@@ -3562,7 +3562,7 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P25" t="n">
@@ -3690,7 +3690,7 @@
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P26" t="n">
@@ -3818,7 +3818,7 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -3944,7 +3944,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P28" t="n">
@@ -4072,7 +4072,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P29" t="n">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P30" t="n">
@@ -4329,7 +4329,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P31" t="n">
@@ -4575,7 +4575,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P33" t="n">
@@ -4703,7 +4703,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P34" t="n">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P35" t="n">
@@ -4959,7 +4959,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P36" t="n">
@@ -5087,7 +5087,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P37" t="n">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P38" t="n">
@@ -5343,7 +5343,7 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P39" t="n">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P40" t="n">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P42" t="n">
@@ -5851,7 +5851,7 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P43" t="n">
@@ -5979,7 +5979,7 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P44" t="n">
@@ -6105,7 +6105,7 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P45" t="n">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P46" t="n">
@@ -6361,7 +6361,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P47" t="n">
@@ -6489,7 +6489,7 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P48" t="n">
@@ -6617,7 +6617,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P49" t="n">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P50" t="n">
@@ -6986,7 +6986,7 @@
       <c r="N52" t="inlineStr"/>
       <c r="O52" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P52" t="n">
@@ -7112,7 +7112,7 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -7352,7 +7352,7 @@
       <c r="N55" t="inlineStr"/>
       <c r="O55" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P55" t="n">
@@ -7478,7 +7478,7 @@
       <c r="N56" t="inlineStr"/>
       <c r="O56" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P56" t="n">
@@ -7604,7 +7604,7 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P57" t="n">
@@ -7730,7 +7730,7 @@
       <c r="N58" t="inlineStr"/>
       <c r="O58" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P58" t="n">
@@ -7856,7 +7856,7 @@
       <c r="N59" t="inlineStr"/>
       <c r="O59" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P59" t="n">
@@ -7982,7 +7982,7 @@
       <c r="N60" t="inlineStr"/>
       <c r="O60" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P60" t="n">
@@ -8108,7 +8108,7 @@
       <c r="N61" t="inlineStr"/>
       <c r="O61" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -8234,7 +8234,7 @@
       <c r="N62" t="inlineStr"/>
       <c r="O62" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P62" t="n">
@@ -8358,7 +8358,7 @@
       <c r="N63" t="inlineStr"/>
       <c r="O63" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P63" t="n">
@@ -8484,7 +8484,7 @@
       <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P64" t="n">
@@ -8610,7 +8610,7 @@
       <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P65" t="n">
@@ -8736,7 +8736,7 @@
       <c r="N66" t="inlineStr"/>
       <c r="O66" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P66" t="n">
@@ -8860,7 +8860,7 @@
       <c r="N67" t="inlineStr"/>
       <c r="O67" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P67" t="n">
@@ -8984,7 +8984,7 @@
       <c r="N68" t="inlineStr"/>
       <c r="O68" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P68" t="n">
@@ -9110,7 +9110,7 @@
       <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P69" t="n">
@@ -9234,7 +9234,7 @@
       <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P70" t="n">
@@ -9360,7 +9360,7 @@
       <c r="N71" t="inlineStr"/>
       <c r="O71" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P71" t="n">
@@ -9486,7 +9486,7 @@
       <c r="N72" t="inlineStr"/>
       <c r="O72" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P72" t="n">
@@ -9612,7 +9612,7 @@
       <c r="N73" t="inlineStr"/>
       <c r="O73" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P73" t="n">
@@ -9736,7 +9736,7 @@
       <c r="N74" t="inlineStr"/>
       <c r="O74" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P74" t="n">
@@ -9862,7 +9862,7 @@
       <c r="N75" t="inlineStr"/>
       <c r="O75" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P75" t="n">
@@ -9988,7 +9988,7 @@
       <c r="N76" t="inlineStr"/>
       <c r="O76" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P76" t="n">
@@ -10114,7 +10114,7 @@
       <c r="N77" t="inlineStr"/>
       <c r="O77" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P77" t="n">
@@ -10240,7 +10240,7 @@
       <c r="N78" t="inlineStr"/>
       <c r="O78" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P78" t="n">
@@ -10364,7 +10364,7 @@
       <c r="N79" t="inlineStr"/>
       <c r="O79" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P79" t="n">
@@ -10490,7 +10490,7 @@
       <c r="N80" t="inlineStr"/>
       <c r="O80" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P80" t="n">
@@ -10616,7 +10616,7 @@
       <c r="N81" t="inlineStr"/>
       <c r="O81" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P81" t="n">
@@ -10742,7 +10742,7 @@
       <c r="N82" t="inlineStr"/>
       <c r="O82" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P82" t="n">
@@ -11930,7 +11930,7 @@
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P92" t="n">
@@ -12056,7 +12056,7 @@
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P93" t="n">
@@ -12182,7 +12182,7 @@
       <c r="N94" t="inlineStr"/>
       <c r="O94" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P94" t="n">
@@ -12308,7 +12308,7 @@
       <c r="N95" t="inlineStr"/>
       <c r="O95" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P95" t="n">
@@ -12436,7 +12436,7 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P96" t="n">
@@ -12562,7 +12562,7 @@
       <c r="N97" t="inlineStr"/>
       <c r="O97" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P97" t="n">
@@ -12688,7 +12688,7 @@
       <c r="N98" t="inlineStr"/>
       <c r="O98" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P98" t="n">
@@ -12814,7 +12814,7 @@
       <c r="N99" t="inlineStr"/>
       <c r="O99" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P99" t="n">
@@ -12940,7 +12940,7 @@
       <c r="N100" t="inlineStr"/>
       <c r="O100" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P100" t="n">
@@ -13066,7 +13066,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P101" t="n">
@@ -13194,7 +13194,7 @@
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P102" t="n">
@@ -13320,7 +13320,7 @@
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P103" t="n">
@@ -13448,7 +13448,7 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P104" t="n">
@@ -13574,7 +13574,7 @@
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P105" t="n">
@@ -13700,7 +13700,7 @@
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="inlineStr">
         <is>
-          <t>VP级</t>
+          <t>按vp价结算</t>
         </is>
       </c>
       <c r="P106" t="n">
@@ -13826,7 +13826,7 @@
       <c r="N107" t="inlineStr"/>
       <c r="O107" t="inlineStr">
         <is>
-          <t>VP级</t>
+          <t>按vp价结算</t>
         </is>
       </c>
       <c r="P107" t="n">
@@ -13952,7 +13952,7 @@
       <c r="N108" t="inlineStr"/>
       <c r="O108" t="inlineStr">
         <is>
-          <t>VP级</t>
+          <t>按vp价结算</t>
         </is>
       </c>
       <c r="P108" t="n">
@@ -14076,7 +14076,7 @@
       <c r="N109" t="inlineStr"/>
       <c r="O109" t="inlineStr">
         <is>
-          <t>VP级</t>
+          <t>按vp价结算</t>
         </is>
       </c>
       <c r="P109" t="n">
@@ -14204,7 +14204,7 @@
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P110" t="n">
@@ -14332,7 +14332,7 @@
       </c>
       <c r="O111" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P111" t="n">
@@ -14460,7 +14460,7 @@
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P112" t="n">
@@ -14588,7 +14588,7 @@
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P113" t="n">
@@ -14716,7 +14716,7 @@
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P114" t="n">
@@ -14844,7 +14844,7 @@
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P115" t="n">
@@ -14972,7 +14972,7 @@
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P116" t="n">
@@ -15100,7 +15100,7 @@
       </c>
       <c r="O117" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P117" t="n">
@@ -15228,7 +15228,7 @@
       </c>
       <c r="O118" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P118" t="n">
@@ -15356,7 +15356,7 @@
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P119" t="n">
@@ -15484,7 +15484,7 @@
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P120" t="n">
@@ -15612,7 +15612,7 @@
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P121" t="n">
@@ -15740,7 +15740,7 @@
       </c>
       <c r="O122" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P122" t="n">
@@ -15868,7 +15868,7 @@
       </c>
       <c r="O123" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P123" t="n">
@@ -15996,7 +15996,7 @@
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P124" t="n">
@@ -16124,7 +16124,7 @@
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P125" t="n">
@@ -16250,7 +16250,7 @@
       </c>
       <c r="O126" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P126" t="n">
@@ -16378,7 +16378,7 @@
       </c>
       <c r="O127" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P127" t="n">
@@ -16506,7 +16506,7 @@
       </c>
       <c r="O128" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P128" t="n">
@@ -16634,7 +16634,7 @@
       </c>
       <c r="O129" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P129" t="n">
@@ -16762,7 +16762,7 @@
       </c>
       <c r="O130" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P130" t="n">
@@ -16890,7 +16890,7 @@
       </c>
       <c r="O131" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P131" t="n">
@@ -17018,7 +17018,7 @@
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P132" t="n">
@@ -17146,7 +17146,7 @@
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P133" t="n">
@@ -17274,7 +17274,7 @@
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P134" t="n">
@@ -17402,7 +17402,7 @@
       </c>
       <c r="O135" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P135" t="n">
@@ -17530,7 +17530,7 @@
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P136" t="n">
@@ -17658,7 +17658,7 @@
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P137" t="n">
@@ -17786,7 +17786,7 @@
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P138" t="n">
@@ -17914,7 +17914,7 @@
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P139" t="n">
@@ -18042,7 +18042,7 @@
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P140" t="n">
@@ -18286,7 +18286,7 @@
       <c r="N142" t="inlineStr"/>
       <c r="O142" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P142" t="n">
@@ -18416,7 +18416,7 @@
       <c r="N143" t="inlineStr"/>
       <c r="O143" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P143" t="n">
@@ -18546,7 +18546,7 @@
       <c r="N144" t="inlineStr"/>
       <c r="O144" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P144" t="n">
@@ -18676,7 +18676,7 @@
       <c r="N145" t="inlineStr"/>
       <c r="O145" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P145" t="n">
@@ -18804,7 +18804,7 @@
       </c>
       <c r="O146" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P146" t="n">
@@ -18932,7 +18932,7 @@
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P147" t="n">
@@ -19060,7 +19060,7 @@
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P148" t="n">
@@ -19188,7 +19188,7 @@
       </c>
       <c r="O149" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P149" t="n">
@@ -19316,7 +19316,7 @@
       </c>
       <c r="O150" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P150" t="n">
@@ -19444,7 +19444,7 @@
       </c>
       <c r="O151" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P151" t="n">
@@ -19572,7 +19572,7 @@
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P152" t="n">
@@ -19700,7 +19700,7 @@
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P153" t="n">
@@ -19828,7 +19828,7 @@
       </c>
       <c r="O154" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P154" t="n">
@@ -19956,7 +19956,7 @@
       </c>
       <c r="O155" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P155" t="n">
@@ -20084,7 +20084,7 @@
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P156" t="n">
@@ -20210,7 +20210,7 @@
       <c r="N157" t="inlineStr"/>
       <c r="O157" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P157" t="n">
@@ -20336,7 +20336,7 @@
       <c r="N158" t="inlineStr"/>
       <c r="O158" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P158" t="n">
@@ -20464,7 +20464,7 @@
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P159" t="n">
@@ -20592,7 +20592,7 @@
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P160" t="n">
@@ -20718,7 +20718,7 @@
       <c r="N161" t="inlineStr"/>
       <c r="O161" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P161" t="n">
@@ -20844,7 +20844,7 @@
       <c r="N162" t="inlineStr"/>
       <c r="O162" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P162" t="n">
@@ -20970,7 +20970,7 @@
       <c r="N163" t="inlineStr"/>
       <c r="O163" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P163" t="n">
@@ -21097,7 +21097,7 @@
       <c r="N164" t="inlineStr"/>
       <c r="O164" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P164" t="n">
@@ -21224,7 +21224,7 @@
       <c r="N165" t="inlineStr"/>
       <c r="O165" t="inlineStr">
         <is>
-          <t>总监价格</t>
+          <t>按总监价结算</t>
         </is>
       </c>
       <c r="P165" t="n">
@@ -21351,7 +21351,7 @@
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P166" t="n">
@@ -21479,7 +21479,7 @@
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P167" t="n">
@@ -21605,7 +21605,7 @@
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P168" t="n">
@@ -21731,7 +21731,7 @@
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P169" t="n">
@@ -21859,7 +21859,7 @@
       </c>
       <c r="O170" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P170" t="n">
@@ -21987,7 +21987,7 @@
       </c>
       <c r="O171" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P171" t="n">
@@ -22115,7 +22115,7 @@
       </c>
       <c r="O172" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P172" t="n">
@@ -22243,7 +22243,7 @@
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P173" t="n">
@@ -22371,7 +22371,7 @@
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P174" t="n">
@@ -22499,7 +22499,7 @@
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P175" t="n">
@@ -22627,7 +22627,7 @@
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P176" t="n">
@@ -22753,7 +22753,7 @@
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P177" t="n">
@@ -22881,7 +22881,7 @@
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P178" t="n">
@@ -23009,7 +23009,7 @@
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P179" t="n">
@@ -23137,7 +23137,7 @@
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P180" t="n">
@@ -23265,7 +23265,7 @@
       </c>
       <c r="O181" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P181" t="n">
@@ -23391,7 +23391,7 @@
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P182" t="n">
@@ -23519,7 +23519,7 @@
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P183" t="n">
@@ -23645,7 +23645,7 @@
       </c>
       <c r="O184" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P184" t="n">
@@ -23773,7 +23773,7 @@
       </c>
       <c r="O185" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P185" t="n">
@@ -23901,7 +23901,7 @@
       </c>
       <c r="O186" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P186" t="n">
@@ -24027,7 +24027,7 @@
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P187" t="n">
@@ -24155,7 +24155,7 @@
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P188" t="n">
@@ -24283,7 +24283,7 @@
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P189" t="n">
@@ -24409,7 +24409,7 @@
       </c>
       <c r="O190" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P190" t="n">
@@ -24537,7 +24537,7 @@
       </c>
       <c r="O191" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P191" t="n">
@@ -24663,7 +24663,7 @@
       </c>
       <c r="O192" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P192" t="n">
@@ -24791,7 +24791,7 @@
       </c>
       <c r="O193" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P193" t="n">
@@ -24919,7 +24919,7 @@
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P194" t="n">
@@ -25045,7 +25045,7 @@
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P195" t="n">
@@ -25171,7 +25171,7 @@
       </c>
       <c r="O196" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P196" t="n">
@@ -25299,7 +25299,7 @@
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P197" t="n">
@@ -25427,7 +25427,7 @@
       </c>
       <c r="O198" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P198" t="n">
@@ -25555,7 +25555,7 @@
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P199" t="n">
@@ -25683,7 +25683,7 @@
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P200" t="n">
@@ -25811,7 +25811,7 @@
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P201" t="n">
@@ -25939,7 +25939,7 @@
       </c>
       <c r="O202" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P202" t="n">
@@ -26067,7 +26067,7 @@
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P203" t="n">
@@ -26431,7 +26431,7 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P206" t="n">
@@ -26677,7 +26677,7 @@
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P208" t="n">
@@ -26805,7 +26805,7 @@
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>核心价格</t>
+          <t>按核心价结算</t>
         </is>
       </c>
       <c r="P209" t="n">
@@ -27401,7 +27401,7 @@
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>常规价格</t>
+          <t>按常规价结算</t>
         </is>
       </c>
       <c r="P214" t="n">
@@ -27529,7 +27529,7 @@
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>常规价格</t>
+          <t>按常规价结算</t>
         </is>
       </c>
       <c r="P215" t="n">
@@ -27657,7 +27657,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>常规价格</t>
+          <t>按常规价结算</t>
         </is>
       </c>
       <c r="P216" t="n">
@@ -27785,7 +27785,7 @@
       </c>
       <c r="O217" t="inlineStr">
         <is>
-          <t>常规价格</t>
+          <t>按常规价结算</t>
         </is>
       </c>
       <c r="P217" t="n">
@@ -27913,7 +27913,7 @@
       </c>
       <c r="O218" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P218" t="n">
@@ -28041,7 +28041,7 @@
       </c>
       <c r="O219" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P219" t="n">
@@ -28170,7 +28170,7 @@
       </c>
       <c r="O220" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P220" t="n">
@@ -28299,7 +28299,7 @@
       </c>
       <c r="O221" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P221" t="n">
@@ -28427,7 +28427,7 @@
       </c>
       <c r="O222" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P222" t="n">
@@ -28555,7 +28555,7 @@
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>常规价格</t>
+          <t>按常规价结算</t>
         </is>
       </c>
       <c r="P223" t="n">
@@ -28683,7 +28683,7 @@
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P224" t="n">
@@ -28811,7 +28811,7 @@
       </c>
       <c r="O225" t="inlineStr">
         <is>
-          <t>常规价格</t>
+          <t>按常规价结算</t>
         </is>
       </c>
       <c r="P225" t="n">
@@ -28939,7 +28939,7 @@
       </c>
       <c r="O226" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P226" t="n">
@@ -29067,7 +29067,7 @@
       </c>
       <c r="O227" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P227" t="n">
@@ -29195,7 +29195,7 @@
       </c>
       <c r="O228" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P228" t="n">
@@ -29323,7 +29323,7 @@
       </c>
       <c r="O229" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P229" t="n">
@@ -29451,7 +29451,7 @@
       </c>
       <c r="O230" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P230" t="n">
@@ -29579,7 +29579,7 @@
       </c>
       <c r="O231" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P231" t="n">
@@ -29707,7 +29707,7 @@
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P232" t="n">
@@ -29835,7 +29835,7 @@
       </c>
       <c r="O233" t="inlineStr">
         <is>
-          <t>优惠价</t>
+          <t>按优惠价结算</t>
         </is>
       </c>
       <c r="P233" t="n">

--- a/data/output/result_原表-徐婷-销售开单对账2026-01-29 16_07_05.xlsx
+++ b/data/output/result_原表-徐婷-销售开单对账2026-01-29 16_07_05.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,162 +434,162 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>订单编号</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>销售员</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>经销商</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>CRM客户名称</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>销售时间</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>审核时间</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>礼包编号</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>礼包名称</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>零售价</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>卡号号段</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>客户等级</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>客户出货等级</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>等级变动</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>浮动提成比例</t>
         </is>
       </c>
-      <c r="O1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>价格类型</t>
         </is>
       </c>
-      <c r="P1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>数量</t>
         </is>
       </c>
-      <c r="Q1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>折扣</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>折扣价</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>汇总价</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>是否含税</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>销售备注</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>财务备注</t>
         </is>
       </c>
-      <c r="W1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>开卡方式</t>
         </is>
       </c>
-      <c r="X1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>销售单类型</t>
         </is>
       </c>
-      <c r="Y1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>系统来源</t>
         </is>
       </c>
-      <c r="Z1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>省</t>
         </is>
       </c>
-      <c r="AA1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>市</t>
         </is>
       </c>
-      <c r="AB1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>地址</t>
         </is>
       </c>
-      <c r="AC1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>礼册类型（选几）</t>
         </is>
       </c>
-      <c r="AD1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>实物单运费</t>
         </is>
       </c>
-      <c r="AE1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>铺货方式</t>
         </is>
       </c>
-      <c r="AF1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>产品类型</t>
         </is>
